--- a/Task_assignments.xlsx
+++ b/Task_assignments.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$39</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="48">
   <si>
     <t>Task</t>
   </si>
@@ -154,6 +154,15 @@
   </si>
   <si>
     <t>Design Github Page</t>
+  </si>
+  <si>
+    <t>Implement Database class</t>
+  </si>
+  <si>
+    <t>Kailsah</t>
+  </si>
+  <si>
+    <t>Implement queries</t>
   </si>
 </sst>
 </file>
@@ -548,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD37"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,40 +670,40 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -705,7 +714,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -716,62 +725,62 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -782,18 +791,18 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -804,40 +813,40 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
@@ -848,18 +857,18 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
@@ -870,7 +879,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -881,10 +890,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
@@ -892,7 +901,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -903,29 +912,29 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -936,7 +945,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -947,10 +956,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -958,17 +967,39 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>31</v>
       </c>
-      <c r="B37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C37"/>
+  <autoFilter ref="A1:C39"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
